--- a/Output/DTT.xlsx
+++ b/Output/DTT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="27">
   <si>
     <t>Testcase</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Weak</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>DTT-002</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>Strong</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
   <si>
     <t>DTT-012</t>
@@ -119,13 +125,13 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>True</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -133,13 +139,13 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>True</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -147,13 +153,13 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>True</v>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -161,13 +167,13 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>True</v>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -175,13 +181,13 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>True</v>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -189,13 +195,13 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>True</v>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -203,148 +209,148 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>True</v>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>True</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>True</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>True</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>False</v>
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>True</v>
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>False</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>False</v>
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>True</v>
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>True</v>
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>True</v>
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
